--- a/Ablation/plot_openness/openness.xlsx
+++ b/Ablation/plot_openness/openness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/Open-Set-Reconigtion/Ablation/plot_openness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B8D77-10BD-F044-85D2-08B8D00E379B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5660E65-A7E4-194D-9673-1166D5E72B0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{3996F187-76C9-B142-80F4-6023EDE454EC}"/>
   </bookViews>
@@ -40,13 +40,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,39 +109,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11711327260563018"/>
+          <c:y val="0.16415781185246581"/>
+          <c:w val="0.84331140960321138"/>
+          <c:h val="0.67162469954413595"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -210,16 +197,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -1371,6 +1355,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Unknown class</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> number in tesing</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1393,16 +1449,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1436,6 +1489,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Openness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1452,16 +1560,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1470,6 +1575,7 @@
         <c:crossAx val="698062224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1494,16 +1600,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1526,12 +1629,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2120,10 +2218,10 @@
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2451,1147 +2549,1150 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2">
+      <c r="C2" s="1">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2.4099927051466699E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>4.65374107544076E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.16666666666666599</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4.65374107544076E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>8.7129070824723098E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.23076923076923</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6.7495191759686199E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.12294198069296999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.28571428571428498</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>8.7129070824723098E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.15484574527148301</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.10557280900008401</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.18350341907227299</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.375</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.12294198069296999</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.20943058495790501</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.41176470588235198</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.139337034176129</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.23303501115262901</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.44444444444444398</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.15484574527148301</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.25464400750006999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.47368421052631499</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.16954520146259999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.27452374988998801</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.18350341907227299</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.29289321881345198</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.52380952380952295</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.196780671097501</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.30993444065764503</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.54545454545454497</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.20943058495790501</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.32580013753675702</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.56521739130434701</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.22150105583847701</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.34061952660421302</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.23303501115262901</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.35450277563209698</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.24407105398154499</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.36754446796632401</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.61538461538461497</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.25464400750006999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.37982632705395702</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.62962962962962898</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.264785377906192</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.39141938054981501</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.64285714285714202</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.27452374988998801</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.402385695332803</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.65517241379310298</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.28388512596056698</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.41277978048529601</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.29289321881345198</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.42264973081037399</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.67741935483870896</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.30156970423042101</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.43203816575293502</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.6875</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.30993444065764503</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.44098300562505199</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.69696969696969702</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.318005660529526</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.44951811743681902</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.70588235294117596</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.32580013753675702</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.45767385545335898</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.71428571428571397</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.46547751617515098</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.72222222222222199</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.34061952660421302</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>0.47295372330527002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.72972972972972905</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.34767192694655702</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.480124755089963</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0.73684210526315697</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.35450277563209698</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>0.48701082395742301</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.74358974358974295</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.36112343500006</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>0.49363031645816602</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>0.75</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.36754446796632401</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0.75609756097560898</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.37377570891485001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.50613520167520498</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0.76190476190476097</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.37982632705395702</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>0.51204996352573295</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C34">
+      <c r="C34" s="1">
         <v>0.76744186046511598</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0.38570488316604801</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>0.51775717782958797</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C35">
+      <c r="C35" s="1">
         <v>0.77272727272727204</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>0.39141938054981501</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>0.52326870537720305</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.77777777777777701</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0.39697731084447202</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>0.52859547920896799</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0.78260869565217395</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0.402385695332803</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>0.533747595879843</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0.78723404255319096</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.40765112224090699</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>0.53873439598555695</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C39">
+      <c r="C39" s="1">
         <v>0.79166666666666596</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0.41277978048529601</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>0.54356453541236105</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0.79591836734693799</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.41777749026041799</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>0.54824604854737402</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>0.8</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0.42264973081037399</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>0.55278640450004202</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C42">
+      <c r="C42" s="1">
         <v>0.80392156862745101</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>0.42740166568613103</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>0.55719255722995198</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C43">
+      <c r="C43" s="1">
         <v>0.80769230769230704</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0.43203816575293502</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>0.56147099034648495</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0.81132075471698095</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>0.43656383018098899</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>0.56562775723693004</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C45">
+      <c r="C45" s="1">
         <v>0.81481481481481399</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>0.44098300562505199</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>0.56966851708806399</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C46">
+      <c r="C46" s="1">
         <v>0.81818181818181801</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>0.44529980377477002</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>0.573598567288779</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C47">
+      <c r="C47" s="1">
         <v>0.82142857142857095</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>0.44951811743681902</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>0.57742287263574099</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C48">
+      <c r="C48" s="1">
         <v>0.82456140350877105</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>0.45364163529184698</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>0.581146091708304</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C49">
+      <c r="C49" s="1">
         <v>0.82758620689655105</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>0.45767385545335898</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>0.5847726007313</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C50">
+      <c r="C50" s="1">
         <v>0.83050847457627097</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>0.461618097941834</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>0.58830651520369004</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>0.46547751617515098</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>0.59175170953613698</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C52">
+      <c r="C52" s="1">
         <v>0.83606557377049096</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>0.46925510756572397</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>0.59511183491054198</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53">
+      <c r="C53" s="1">
         <v>0.83870967741935398</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>0.47295372330527002</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>0.59839033554874999</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C54">
+      <c r="C54" s="1">
         <v>0.84126984126984095</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>0.47657607740978603</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>0.60159046355520196</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C55">
+      <c r="C55" s="1">
         <v>0.84375</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>0.480124755089963</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>0.60471529247895195</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C56">
+      <c r="C56" s="1">
         <v>0.84615384615384603</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>0.48360222050567703</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>0.60776772972363102</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C57">
+      <c r="C57" s="1">
         <v>0.84848484848484795</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>0.48701082395742301</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>0.61075052791923801</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C58">
+      <c r="C58" s="1">
         <v>0.85074626865671599</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>0.49035280856237401</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>0.613666295356872</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C59">
+      <c r="C59" s="1">
         <v>0.85294117647058798</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>0.49363031645816602</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>0.61651750557631402</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C60">
+      <c r="C60" s="1">
         <v>0.85507246376811596</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>0.49684539457337201</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>0.61930650618655902</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>0.85714285714285698</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>0.5</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>0.62203552699077203</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C62">
+      <c r="C62" s="1">
         <v>0.85915492957746398</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>0.50309600500004603</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>0.62470668747959901</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C63">
+      <c r="C63" s="1">
         <v>0.86111111111111105</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>0.50613520167520498</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>0.627322003750035</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C64">
+      <c r="C64" s="1">
         <v>0.86301369863013699</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>0.50911930632618396</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>0.62988339490119705</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C65">
+      <c r="C65" s="1">
         <v>0.86486486486486402</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>0.51204996352573295</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>0.63239268895309597</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C66">
+      <c r="C66" s="1">
         <v>0.86666666666666603</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>0.51492874992733395</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>0.63485162832988895</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C67">
+      <c r="C67" s="1">
         <v>0.86842105263157898</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>0.51775717782958797</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>0.63726187494499398</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C68">
+      <c r="C68" s="1">
         <v>0.87012987012986998</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>0.52053669851461504</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>0.63962501492177604</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C69">
+      <c r="C69" s="1">
         <v>0.87179487179487103</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>0.52326870537720305</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>0.64194256298028296</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C70">
+      <c r="C70" s="1">
         <v>0.873417721518987</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>0.52595453686002203</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>0.64421596651758894</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>0.875</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>0.52859547920896799</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>0.64644660940672605</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C72">
+      <c r="C72" s="1">
         <v>0.87654320987654299</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>0.53119276906150403</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>0.64863581553684602</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C73">
+      <c r="C73" s="1">
         <v>0.87804878048780399</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>0.533747595879843</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>0.65078485211520998</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C74">
+      <c r="C74" s="1">
         <v>0.87951807228915602</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>0.53626110423983098</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>0.65289493274968802</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C75">
+      <c r="C75" s="1">
         <v>0.88095238095238004</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>0.53873439598555695</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>0.65496722032882204</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C76">
+      <c r="C76" s="1">
         <v>0.88235294117647001</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>0.54116853225887596</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>0.65700282971498203</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C77">
+      <c r="C77" s="1">
         <v>0.88372093023255804</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>0.54356453541236105</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>0.65900283026476303</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C78">
+      <c r="C78" s="1">
         <v>0.88505747126436696</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>0.54592339081350005</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>0.66096824818959399</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C79">
+      <c r="C79" s="1">
         <v>0.88636363636363602</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>0.54824604854737402</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>0.66290006876837904</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C80">
+      <c r="C80" s="1">
         <v>0.88764044943820197</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>0.55053342502450497</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>0.66479923842300404</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>0.88888888888888795</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>0.55278640450004202</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C82">
+      <c r="C82" s="1">
         <v>0.89010989010988995</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>0.555005840510015</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <v>0.668503227934102</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C83">
+      <c r="C83" s="1">
         <v>0.89130434782608603</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>0.55719255722995198</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>0.67030976330210601</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C84">
+      <c r="C84" s="1">
         <v>0.89247311827956899</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>0.55934735076076803</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <v>0.67208708210802304</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C85">
+      <c r="C85" s="1">
         <v>0.89361702127659504</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>0.56147099034648495</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <v>0.67383596347327801</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C86">
+      <c r="C86" s="1">
         <v>0.89473684210526305</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>0.56356421952801505</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>0.67555715773847402</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C87">
+      <c r="C87" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>0.56562775723693004</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>0.67725138781604799</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C88">
+      <c r="C88" s="1">
         <v>0.89690721649484495</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>0.56766229883288299</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>0.67891935046603202</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C89">
+      <c r="C89" s="1">
         <v>0.89795918367346905</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>0.56966851708806399</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>0.68056171750003003</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C90">
+      <c r="C90" s="1">
         <v>0.89898989898989901</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>0.57164706312187996</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <v>0.68217913691813503</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>0.9</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>0.573598567288779</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1">
         <v>0.683772233983162</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C92">
+      <c r="C92" s="1">
         <v>0.90099009900990101</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>0.57552364002199097</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <v>0.68534161223622303</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C93">
+      <c r="C93" s="1">
         <v>0.90196078431372495</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>0.57742287263574099</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1">
         <v>0.68688785445742495</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C94">
+      <c r="C94" s="1">
         <v>0.90291262135922301</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>0.57929683808832799</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <v>0.68841152357512203</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C95">
+      <c r="C95" s="1">
         <v>0.90384615384615297</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>0.581146091708304</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>0.68991316352697796</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C96">
+      <c r="C96" s="1">
         <v>0.90476190476190399</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>0.58297117188585001</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>0.69139330007581601</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C97">
+      <c r="C97" s="1">
         <v>0.90566037735849003</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>0.5847726007313</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>0.69285244158302395</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C98">
+      <c r="C98" s="1">
         <v>0.90654205607476601</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>0.58655088470263805</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <v>0.694291079742128</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C99">
+      <c r="C99" s="1">
         <v>0.907407407407407</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>0.58830651520369004</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <v>0.69570969027490703</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C100">
+      <c r="C100" s="1">
         <v>0.90825688073394495</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>0.59003996915460599</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <v>0.69710873359230796</v>
       </c>
     </row>
